--- a/data/pca/factorExposure/factorExposure_2016-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009529988152343759</v>
+        <v>-0.01375233358215159</v>
       </c>
       <c r="C2">
-        <v>0.05404457962336498</v>
+        <v>0.04340687986837944</v>
       </c>
       <c r="D2">
-        <v>-0.03706507249361573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06551281304194477</v>
+      </c>
+      <c r="E2">
+        <v>-0.05131651485266846</v>
+      </c>
+      <c r="F2">
+        <v>0.08141536229555091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06196227680534513</v>
+        <v>-0.03068722385354027</v>
       </c>
       <c r="C3">
-        <v>0.09288014900518989</v>
+        <v>0.08279673200860989</v>
       </c>
       <c r="D3">
-        <v>-0.08182078480439592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09074825388247884</v>
+      </c>
+      <c r="E3">
+        <v>-0.05851705069686562</v>
+      </c>
+      <c r="F3">
+        <v>0.01214210680732677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0644331948053042</v>
+        <v>-0.05793599701208776</v>
       </c>
       <c r="C4">
-        <v>0.05822901833771484</v>
+        <v>0.06610347981271754</v>
       </c>
       <c r="D4">
-        <v>-0.02463027118849475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05916215054918983</v>
+      </c>
+      <c r="E4">
+        <v>-0.04931102069846633</v>
+      </c>
+      <c r="F4">
+        <v>0.08859761483494398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04027996274514436</v>
+        <v>-0.03531540618513665</v>
       </c>
       <c r="C6">
-        <v>0.03273851812090846</v>
+        <v>0.0317218138014735</v>
       </c>
       <c r="D6">
-        <v>-0.03063389476847459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06858463640027498</v>
+      </c>
+      <c r="E6">
+        <v>-0.05771476295129093</v>
+      </c>
+      <c r="F6">
+        <v>0.07125607863164708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02070227167171222</v>
+        <v>-0.01935228062010328</v>
       </c>
       <c r="C7">
-        <v>0.04151149656764065</v>
+        <v>0.03848611915818962</v>
       </c>
       <c r="D7">
-        <v>0.004963920421221206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0370413233515029</v>
+      </c>
+      <c r="E7">
+        <v>-0.03100965248950981</v>
+      </c>
+      <c r="F7">
+        <v>0.107909089189941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0001288080222817039</v>
+        <v>-0.00324795568591668</v>
       </c>
       <c r="C8">
-        <v>0.02627613451697515</v>
+        <v>0.02912764256312919</v>
       </c>
       <c r="D8">
-        <v>-0.03276256615338848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03597095360904567</v>
+      </c>
+      <c r="E8">
+        <v>-0.04063337078412189</v>
+      </c>
+      <c r="F8">
+        <v>0.05020910898653307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03468351621675007</v>
+        <v>-0.03651839117961825</v>
       </c>
       <c r="C9">
-        <v>0.04405773426210097</v>
+        <v>0.05273983579586779</v>
       </c>
       <c r="D9">
-        <v>-0.01373395866053691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04478950331091924</v>
+      </c>
+      <c r="E9">
+        <v>-0.04198035367071972</v>
+      </c>
+      <c r="F9">
+        <v>0.09207140608968042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06444357830195675</v>
+        <v>-0.09808122563259264</v>
       </c>
       <c r="C10">
-        <v>-0.1951993058519898</v>
+        <v>-0.1952829318360278</v>
       </c>
       <c r="D10">
-        <v>-0.005238570639646415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001222222221300399</v>
+      </c>
+      <c r="E10">
+        <v>-0.04705976055942526</v>
+      </c>
+      <c r="F10">
+        <v>0.04041439837893199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04020128855848448</v>
+        <v>-0.03645989170598372</v>
       </c>
       <c r="C11">
-        <v>0.05462693088663149</v>
+        <v>0.05117510795078854</v>
       </c>
       <c r="D11">
-        <v>-0.008526606824917389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03391875921077041</v>
+      </c>
+      <c r="E11">
+        <v>-0.005379367889394123</v>
+      </c>
+      <c r="F11">
+        <v>0.06665792992876303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03733739746263061</v>
+        <v>-0.03737686584179925</v>
       </c>
       <c r="C12">
-        <v>0.04515983697367552</v>
+        <v>0.04701755754119631</v>
       </c>
       <c r="D12">
-        <v>-0.001793031543416717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02564724823985415</v>
+      </c>
+      <c r="E12">
+        <v>-0.01425361399183441</v>
+      </c>
+      <c r="F12">
+        <v>0.069825894904066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01428789711251513</v>
+        <v>-0.01238681929693292</v>
       </c>
       <c r="C13">
-        <v>0.04309115905757775</v>
+        <v>0.0423071499906587</v>
       </c>
       <c r="D13">
-        <v>-0.0185409388565365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06180985037763779</v>
+      </c>
+      <c r="E13">
+        <v>-0.06114425758112774</v>
+      </c>
+      <c r="F13">
+        <v>0.1137775715632738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.00755217209956155</v>
+        <v>-0.005053267350953187</v>
       </c>
       <c r="C14">
-        <v>0.03404453991357866</v>
+        <v>0.03200155677451411</v>
       </c>
       <c r="D14">
-        <v>0.01404853416482439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02679749781392892</v>
+      </c>
+      <c r="E14">
+        <v>-0.02630432356232537</v>
+      </c>
+      <c r="F14">
+        <v>0.09751095447671922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001175350052590434</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003274861554182989</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004455378875153311</v>
+      </c>
+      <c r="E15">
+        <v>0.0002126902844566394</v>
+      </c>
+      <c r="F15">
+        <v>0.00302646806095986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03736476505542211</v>
+        <v>-0.03402181322686591</v>
       </c>
       <c r="C16">
-        <v>0.04176063261451281</v>
+        <v>0.04505429044791067</v>
       </c>
       <c r="D16">
-        <v>-0.007230257562736511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0284303581262713</v>
+      </c>
+      <c r="E16">
+        <v>-0.01974298416469563</v>
+      </c>
+      <c r="F16">
+        <v>0.07095260961246673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02427616072513826</v>
+        <v>-0.01653969335086776</v>
       </c>
       <c r="C19">
-        <v>0.06117537224796972</v>
+        <v>0.05103619178741253</v>
       </c>
       <c r="D19">
-        <v>-0.07254333007931406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09579648269915522</v>
+      </c>
+      <c r="E19">
+        <v>-0.07961993735391086</v>
+      </c>
+      <c r="F19">
+        <v>0.09160142084971951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01615497692244678</v>
+        <v>-0.01355596019468826</v>
       </c>
       <c r="C20">
-        <v>0.0443644991500245</v>
+        <v>0.04118599230353233</v>
       </c>
       <c r="D20">
-        <v>-0.01862999879772064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04056871589593183</v>
+      </c>
+      <c r="E20">
+        <v>-0.05557095582524147</v>
+      </c>
+      <c r="F20">
+        <v>0.0893405049619508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.00965108919993639</v>
+        <v>-0.00887683858607723</v>
       </c>
       <c r="C21">
-        <v>0.04667722538437889</v>
+        <v>0.04472420861777433</v>
       </c>
       <c r="D21">
-        <v>-0.03920141681987666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07087634980301021</v>
+      </c>
+      <c r="E21">
+        <v>-0.07258601725263118</v>
+      </c>
+      <c r="F21">
+        <v>0.1341234714067251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001933794365119821</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02300524834647442</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03547482161295876</v>
+      </c>
+      <c r="E22">
+        <v>-0.01878617413649368</v>
+      </c>
+      <c r="F22">
+        <v>0.02137920107781531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002001982577084297</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02312857510520999</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03516639405309876</v>
+      </c>
+      <c r="E23">
+        <v>-0.01907414214403</v>
+      </c>
+      <c r="F23">
+        <v>0.0212570007886282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03293265479967483</v>
+        <v>-0.03373276805490638</v>
       </c>
       <c r="C24">
-        <v>0.04732451212868878</v>
+        <v>0.0530064594660204</v>
       </c>
       <c r="D24">
-        <v>-0.004705248864918185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02703082618272946</v>
+      </c>
+      <c r="E24">
+        <v>-0.01700456509871962</v>
+      </c>
+      <c r="F24">
+        <v>0.07916421321699993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04705640508949344</v>
+        <v>-0.04412120583460791</v>
       </c>
       <c r="C25">
-        <v>0.0570430198901912</v>
+        <v>0.05608161970281743</v>
       </c>
       <c r="D25">
-        <v>0.00640778780739208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02499803483304433</v>
+      </c>
+      <c r="E25">
+        <v>-0.01128101930425036</v>
+      </c>
+      <c r="F25">
+        <v>0.08073168731070368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0143402716703805</v>
+        <v>-0.01384852312423867</v>
       </c>
       <c r="C26">
-        <v>0.01702785131549599</v>
+        <v>0.01679831361029721</v>
       </c>
       <c r="D26">
-        <v>-0.002174790346587557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02659487038384606</v>
+      </c>
+      <c r="E26">
+        <v>-0.02855862327843934</v>
+      </c>
+      <c r="F26">
+        <v>0.07461522059672304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.07702722167076664</v>
+        <v>-0.1323136397285219</v>
       </c>
       <c r="C28">
-        <v>-0.2298746879444159</v>
+        <v>-0.2456026041883879</v>
       </c>
       <c r="D28">
-        <v>0.000470895131998009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01476338590485025</v>
+      </c>
+      <c r="E28">
+        <v>-0.04826248595594073</v>
+      </c>
+      <c r="F28">
+        <v>0.05702126719461074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.009694248727828453</v>
+        <v>-0.005990903606697854</v>
       </c>
       <c r="C29">
-        <v>0.02682097622946449</v>
+        <v>0.0273812967089118</v>
       </c>
       <c r="D29">
-        <v>0.01571437676312303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02168777643859255</v>
+      </c>
+      <c r="E29">
+        <v>-0.02833370164167158</v>
+      </c>
+      <c r="F29">
+        <v>0.0895250653941058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05388413523015116</v>
+        <v>-0.04220060174000716</v>
       </c>
       <c r="C30">
-        <v>0.05721045482737846</v>
+        <v>0.06480121558068139</v>
       </c>
       <c r="D30">
-        <v>-0.05603017935319146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1078997558985293</v>
+      </c>
+      <c r="E30">
+        <v>-0.04001795340782216</v>
+      </c>
+      <c r="F30">
+        <v>0.1049325953851312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05224659453485228</v>
+        <v>-0.05500206597966958</v>
       </c>
       <c r="C31">
-        <v>0.03218753084073646</v>
+        <v>0.05413734691258208</v>
       </c>
       <c r="D31">
-        <v>0.01818710712010917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009504229885348251</v>
+      </c>
+      <c r="E31">
+        <v>-0.04871098815916917</v>
+      </c>
+      <c r="F31">
+        <v>0.08255271262104773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009549921730106523</v>
+        <v>-0.004979786653047971</v>
       </c>
       <c r="C32">
-        <v>0.04352522468918299</v>
+        <v>0.03344163526203883</v>
       </c>
       <c r="D32">
-        <v>-0.0289559057255319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05019627784047961</v>
+      </c>
+      <c r="E32">
+        <v>-0.02294845451953249</v>
+      </c>
+      <c r="F32">
+        <v>0.07443856180986165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02839099381884609</v>
+        <v>-0.02457733904758122</v>
       </c>
       <c r="C33">
-        <v>0.05956998841052775</v>
+        <v>0.05505040456035913</v>
       </c>
       <c r="D33">
-        <v>-0.0357496592274689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08012010707430119</v>
+      </c>
+      <c r="E33">
+        <v>-0.05017795711713824</v>
+      </c>
+      <c r="F33">
+        <v>0.1296760001753249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04544626435950073</v>
+        <v>-0.04145142356443338</v>
       </c>
       <c r="C34">
-        <v>0.059293650662903</v>
+        <v>0.06339179259518601</v>
       </c>
       <c r="D34">
-        <v>0.0001875336640282529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03452392429505811</v>
+      </c>
+      <c r="E34">
+        <v>0.007742561029521462</v>
+      </c>
+      <c r="F34">
+        <v>0.07717801250509823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01005698506034063</v>
+        <v>-0.01294137130520311</v>
       </c>
       <c r="C36">
-        <v>0.01665108901898674</v>
+        <v>0.01254408299380092</v>
       </c>
       <c r="D36">
-        <v>-0.00169817123832817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02792286678079041</v>
+      </c>
+      <c r="E36">
+        <v>-0.03420519028739863</v>
+      </c>
+      <c r="F36">
+        <v>0.0821556669347985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0292190460825171</v>
+        <v>-0.0243293659757747</v>
       </c>
       <c r="C38">
-        <v>0.02702172605501117</v>
+        <v>0.02467504233207133</v>
       </c>
       <c r="D38">
-        <v>0.002006234281615136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02631855943030267</v>
+      </c>
+      <c r="E38">
+        <v>-0.03269307493500385</v>
+      </c>
+      <c r="F38">
+        <v>0.0693920884470822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04347348487804568</v>
+        <v>-0.03963072807666805</v>
       </c>
       <c r="C39">
-        <v>0.0706075793986962</v>
+        <v>0.06801251629367605</v>
       </c>
       <c r="D39">
-        <v>-0.02122824311175558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05293178105466856</v>
+      </c>
+      <c r="E39">
+        <v>-0.0183618275646401</v>
+      </c>
+      <c r="F39">
+        <v>0.09164879552943311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01489659712203005</v>
+        <v>-0.01569487880573531</v>
       </c>
       <c r="C40">
-        <v>0.0363462951050156</v>
+        <v>0.04044894990814124</v>
       </c>
       <c r="D40">
-        <v>-0.03223267196445001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03847189848006984</v>
+      </c>
+      <c r="E40">
+        <v>-0.06900326226630928</v>
+      </c>
+      <c r="F40">
+        <v>0.08814335150087405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.009687439257929078</v>
+        <v>-0.01746724868202147</v>
       </c>
       <c r="C41">
-        <v>0.007315091356517915</v>
+        <v>0.00668194235312459</v>
       </c>
       <c r="D41">
-        <v>0.002183356494595528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01650561469629919</v>
+      </c>
+      <c r="E41">
+        <v>-0.03805272770037126</v>
+      </c>
+      <c r="F41">
+        <v>0.07117478928875118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001050660768066421</v>
+        <v>-0.0007238221338431388</v>
       </c>
       <c r="C42">
-        <v>0.006105827548090468</v>
+        <v>0.003276172354395025</v>
       </c>
       <c r="D42">
-        <v>-0.006052041250212493</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.000599023129951864</v>
+      </c>
+      <c r="E42">
+        <v>-0.005856512181592654</v>
+      </c>
+      <c r="F42">
+        <v>-0.005916137186485858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03126123851123101</v>
+        <v>-0.02880149171168501</v>
       </c>
       <c r="C43">
-        <v>0.02217539007042998</v>
+        <v>0.02173224820036256</v>
       </c>
       <c r="D43">
-        <v>-0.01309668266380525</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03985645114046711</v>
+      </c>
+      <c r="E43">
+        <v>-0.04335802427212272</v>
+      </c>
+      <c r="F43">
+        <v>0.08536812275241637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02069651887170745</v>
+        <v>-0.01412223538512105</v>
       </c>
       <c r="C44">
-        <v>0.05744504821950205</v>
+        <v>0.05315578713044947</v>
       </c>
       <c r="D44">
-        <v>-0.01308456358315199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03985016720516805</v>
+      </c>
+      <c r="E44">
+        <v>-0.05555261705177215</v>
+      </c>
+      <c r="F44">
+        <v>0.08981628217558776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.00310159861829455</v>
+        <v>-0.007505734306661661</v>
       </c>
       <c r="C46">
-        <v>0.02349738816048078</v>
+        <v>0.02561581296074043</v>
       </c>
       <c r="D46">
-        <v>0.02012692425894053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01310861654862071</v>
+      </c>
+      <c r="E46">
+        <v>-0.03387423811680328</v>
+      </c>
+      <c r="F46">
+        <v>0.1035317977857106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08218501705236679</v>
+        <v>-0.08772890281594548</v>
       </c>
       <c r="C47">
-        <v>0.06712193114651621</v>
+        <v>0.07858715581208023</v>
       </c>
       <c r="D47">
-        <v>0.01499440770538516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01675721338728463</v>
+      </c>
+      <c r="E47">
+        <v>-0.05480355828041368</v>
+      </c>
+      <c r="F47">
+        <v>0.08025486732857601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0184027254910212</v>
+        <v>-0.01575422545763487</v>
       </c>
       <c r="C48">
-        <v>0.01284821385433143</v>
+        <v>0.01781351977765335</v>
       </c>
       <c r="D48">
-        <v>0.008977845577843707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01792158089450055</v>
+      </c>
+      <c r="E48">
+        <v>-0.0451370915692869</v>
+      </c>
+      <c r="F48">
+        <v>0.09657049673940141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08626363047070792</v>
+        <v>-0.0715308100692791</v>
       </c>
       <c r="C50">
-        <v>0.06620984991648073</v>
+        <v>0.07068252359242325</v>
       </c>
       <c r="D50">
-        <v>0.0266700125502797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.006126438566770653</v>
+      </c>
+      <c r="E50">
+        <v>-0.0513267450506252</v>
+      </c>
+      <c r="F50">
+        <v>0.07374370235824107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0146800795185994</v>
+        <v>-0.0107860628373239</v>
       </c>
       <c r="C51">
-        <v>0.04834227943525284</v>
+        <v>0.03412846353776381</v>
       </c>
       <c r="D51">
-        <v>-0.01377513887686835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04857270501036191</v>
+      </c>
+      <c r="E51">
+        <v>-0.0210051587575425</v>
+      </c>
+      <c r="F51">
+        <v>0.08332452385527449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08499434151858731</v>
+        <v>-0.09408669118214269</v>
       </c>
       <c r="C53">
-        <v>0.06676801462234498</v>
+        <v>0.08586868362481326</v>
       </c>
       <c r="D53">
-        <v>0.0328177767222195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03889410056925283</v>
+      </c>
+      <c r="E53">
+        <v>-0.05182507285406499</v>
+      </c>
+      <c r="F53">
+        <v>0.09032939308411415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03335520433558539</v>
+        <v>-0.02801898066628963</v>
       </c>
       <c r="C54">
-        <v>0.02074930697319209</v>
+        <v>0.02691030008456809</v>
       </c>
       <c r="D54">
-        <v>-0.001039147101599025</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03186600874031024</v>
+      </c>
+      <c r="E54">
+        <v>-0.04057579036645516</v>
+      </c>
+      <c r="F54">
+        <v>0.0967332563543503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07782400713489644</v>
+        <v>-0.08522852015667996</v>
       </c>
       <c r="C55">
-        <v>0.05733974737423974</v>
+        <v>0.06954507929283343</v>
       </c>
       <c r="D55">
-        <v>0.03685722049781727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04600755053995254</v>
+      </c>
+      <c r="E55">
+        <v>-0.0435559570504542</v>
+      </c>
+      <c r="F55">
+        <v>0.06524401587865779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1522327493661377</v>
+        <v>-0.1468518085745034</v>
       </c>
       <c r="C56">
-        <v>0.08404091283865046</v>
+        <v>0.1036057534302602</v>
       </c>
       <c r="D56">
-        <v>0.0410918228016608</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04916999822200922</v>
+      </c>
+      <c r="E56">
+        <v>-0.04713438909325602</v>
+      </c>
+      <c r="F56">
+        <v>0.05080248917028941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001936451480488342</v>
+        <v>-0.000701946376752095</v>
       </c>
       <c r="C57">
-        <v>0.001313433141790074</v>
+        <v>0.0009568422836674005</v>
       </c>
       <c r="D57">
-        <v>-0.01903308763040445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01670600294267688</v>
+      </c>
+      <c r="E57">
+        <v>-0.007917891004172612</v>
+      </c>
+      <c r="F57">
+        <v>0.01128710121097719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07180900525005685</v>
+        <v>-0.02780287510164113</v>
       </c>
       <c r="C58">
-        <v>0.01792468956828826</v>
+        <v>0.0418514570099407</v>
       </c>
       <c r="D58">
-        <v>-0.9004589566177811</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4870062968625667</v>
+      </c>
+      <c r="E58">
+        <v>-0.6932526797889869</v>
+      </c>
+      <c r="F58">
+        <v>-0.4517794024134356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1263714993354221</v>
+        <v>-0.1437401576829676</v>
       </c>
       <c r="C59">
-        <v>-0.2073782504915115</v>
+        <v>-0.1873704905623522</v>
       </c>
       <c r="D59">
-        <v>-0.01730769801686818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03220676475472486</v>
+      </c>
+      <c r="E59">
+        <v>-0.02546179569247596</v>
+      </c>
+      <c r="F59">
+        <v>0.02252452675210437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3123014808530398</v>
+        <v>-0.2843047022782143</v>
       </c>
       <c r="C60">
-        <v>0.08355932815484333</v>
+        <v>0.09512946598583902</v>
       </c>
       <c r="D60">
-        <v>-0.03731201519778025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2047356221712748</v>
+      </c>
+      <c r="E60">
+        <v>0.2723318727685323</v>
+      </c>
+      <c r="F60">
+        <v>-0.1148515276518843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04253564069332462</v>
+        <v>-0.04100874601773442</v>
       </c>
       <c r="C61">
-        <v>0.06297596239893588</v>
+        <v>0.06177954299610076</v>
       </c>
       <c r="D61">
-        <v>-0.01218242091095019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04591010422271573</v>
+      </c>
+      <c r="E61">
+        <v>-0.02169920377114498</v>
+      </c>
+      <c r="F61">
+        <v>0.08270531127406507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01670783338817369</v>
+        <v>-0.01528197102381492</v>
       </c>
       <c r="C63">
-        <v>0.03552393082721179</v>
+        <v>0.03255004725431031</v>
       </c>
       <c r="D63">
-        <v>0.00356323328885633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02335686919570099</v>
+      </c>
+      <c r="E63">
+        <v>-0.03722736255566416</v>
+      </c>
+      <c r="F63">
+        <v>0.07798483713164441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05453926193642458</v>
+        <v>-0.05591618082339632</v>
       </c>
       <c r="C64">
-        <v>0.03528683496517649</v>
+        <v>0.05363717439450887</v>
       </c>
       <c r="D64">
-        <v>0.01095610512011684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006106332291853519</v>
+      </c>
+      <c r="E64">
+        <v>-0.01960619676259804</v>
+      </c>
+      <c r="F64">
+        <v>0.08600012936613376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09768408633560308</v>
+        <v>-0.06961130541337793</v>
       </c>
       <c r="C65">
-        <v>0.02237023859356256</v>
+        <v>0.03217029735653069</v>
       </c>
       <c r="D65">
-        <v>-0.04061764082705525</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08791786191938215</v>
+      </c>
+      <c r="E65">
+        <v>-0.03143645559882063</v>
+      </c>
+      <c r="F65">
+        <v>0.01937023020449576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06682347870054092</v>
+        <v>-0.05262581080600979</v>
       </c>
       <c r="C66">
-        <v>0.1006319806799186</v>
+        <v>0.09017826650050584</v>
       </c>
       <c r="D66">
-        <v>-0.03345097187421602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08012648328817412</v>
+      </c>
+      <c r="E66">
+        <v>-0.02116054229686345</v>
+      </c>
+      <c r="F66">
+        <v>0.09410122139906893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05114512152378544</v>
+        <v>-0.04651020129108763</v>
       </c>
       <c r="C67">
-        <v>0.03154647505566356</v>
+        <v>0.03027790174095641</v>
       </c>
       <c r="D67">
-        <v>0.007501131680978747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0120016409722372</v>
+      </c>
+      <c r="E67">
+        <v>-0.01573135323249439</v>
+      </c>
+      <c r="F67">
+        <v>0.05440382941642415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1038774376229982</v>
+        <v>-0.1483594689052191</v>
       </c>
       <c r="C68">
-        <v>-0.292857210440271</v>
+        <v>-0.253254720368329</v>
       </c>
       <c r="D68">
-        <v>0.00214325916389939</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01700170258065471</v>
+      </c>
+      <c r="E68">
+        <v>-0.04246264180769164</v>
+      </c>
+      <c r="F68">
+        <v>0.01896254250586303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08897486838036142</v>
+        <v>-0.08765881780855776</v>
       </c>
       <c r="C69">
-        <v>0.06431207314197661</v>
+        <v>0.08492763986461627</v>
       </c>
       <c r="D69">
-        <v>0.04078633386277872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01189528744821138</v>
+      </c>
+      <c r="E69">
+        <v>-0.03099321972520892</v>
+      </c>
+      <c r="F69">
+        <v>0.09723592167904356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1032732814247486</v>
+        <v>-0.1403992433396577</v>
       </c>
       <c r="C71">
-        <v>-0.2536833641073663</v>
+        <v>-0.2339837432675519</v>
       </c>
       <c r="D71">
-        <v>-0.02555091908750548</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01632628409550884</v>
+      </c>
+      <c r="E71">
+        <v>-0.06208014607827379</v>
+      </c>
+      <c r="F71">
+        <v>0.05807184120065798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08882367332817576</v>
+        <v>-0.09707878881350988</v>
       </c>
       <c r="C72">
-        <v>0.04617774505899477</v>
+        <v>0.05530609448080617</v>
       </c>
       <c r="D72">
-        <v>0.008253030725355279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0211999662456403</v>
+      </c>
+      <c r="E72">
+        <v>-0.009002160169207818</v>
+      </c>
+      <c r="F72">
+        <v>0.08098286109261622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4405646828699207</v>
+        <v>-0.3473880202057749</v>
       </c>
       <c r="C73">
-        <v>0.05010500085302499</v>
+        <v>0.0749941463624381</v>
       </c>
       <c r="D73">
-        <v>-0.1537238749132845</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4340877230872801</v>
+      </c>
+      <c r="E73">
+        <v>0.4819333581705446</v>
+      </c>
+      <c r="F73">
+        <v>-0.2933664863458854</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1162483482829888</v>
+        <v>-0.1120195122013796</v>
       </c>
       <c r="C74">
-        <v>0.1009538388604215</v>
+        <v>0.09865022944624914</v>
       </c>
       <c r="D74">
-        <v>0.01433731292611898</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02944631769093894</v>
+      </c>
+      <c r="E74">
+        <v>-0.06149751521935975</v>
+      </c>
+      <c r="F74">
+        <v>0.05600378182672087</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2521259210334456</v>
+        <v>-0.2583917595895062</v>
       </c>
       <c r="C75">
-        <v>0.1003957106013503</v>
+        <v>0.132778756137388</v>
       </c>
       <c r="D75">
-        <v>0.06573489898950144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1283961566843446</v>
+      </c>
+      <c r="E75">
+        <v>-0.0741876122515983</v>
+      </c>
+      <c r="F75">
+        <v>0.01601641593881736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1182364886916051</v>
+        <v>-0.1293796098220613</v>
       </c>
       <c r="C76">
-        <v>0.08469621918889322</v>
+        <v>0.1007466751342235</v>
       </c>
       <c r="D76">
-        <v>0.0350856700810878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05792431306565429</v>
+      </c>
+      <c r="E76">
+        <v>-0.06591017720568551</v>
+      </c>
+      <c r="F76">
+        <v>0.07107605589723767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07901412425770711</v>
+        <v>-0.06281481680372185</v>
       </c>
       <c r="C77">
-        <v>0.05551236890416745</v>
+        <v>0.06870920054092855</v>
       </c>
       <c r="D77">
-        <v>-0.05183330506766048</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.064149589257221</v>
+      </c>
+      <c r="E77">
+        <v>-0.06744145456525728</v>
+      </c>
+      <c r="F77">
+        <v>0.1185585194879606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04887713456747161</v>
+        <v>-0.04389885884298868</v>
       </c>
       <c r="C78">
-        <v>0.04254049073105582</v>
+        <v>0.0553825847275755</v>
       </c>
       <c r="D78">
-        <v>-0.01761056395582651</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07174142814548956</v>
+      </c>
+      <c r="E78">
+        <v>-0.02100992006465329</v>
+      </c>
+      <c r="F78">
+        <v>0.1041088503328288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02532437799666269</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03778835816391596</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05990771420757129</v>
+      </c>
+      <c r="E79">
+        <v>-0.05208191068393831</v>
+      </c>
+      <c r="F79">
+        <v>0.04337402102137344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04880588293339115</v>
+        <v>-0.03488733247299306</v>
       </c>
       <c r="C80">
-        <v>0.0547687885492535</v>
+        <v>0.05497290412424793</v>
       </c>
       <c r="D80">
-        <v>-0.03034437258736316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04649847591287785</v>
+      </c>
+      <c r="E80">
+        <v>-0.01004418824525038</v>
+      </c>
+      <c r="F80">
+        <v>0.03693478869267363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1453390105903112</v>
+        <v>-0.1413795297315261</v>
       </c>
       <c r="C81">
-        <v>0.06394846808638231</v>
+        <v>0.09485954274150786</v>
       </c>
       <c r="D81">
-        <v>0.0389644711532597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09616250732728847</v>
+      </c>
+      <c r="E81">
+        <v>-0.08145510357105318</v>
+      </c>
+      <c r="F81">
+        <v>0.02158816993473284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1473540015044949</v>
+        <v>-0.2014915768309183</v>
       </c>
       <c r="C82">
-        <v>0.04912271810803476</v>
+        <v>0.1336016564153738</v>
       </c>
       <c r="D82">
-        <v>0.1261900657235202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2266243327229776</v>
+      </c>
+      <c r="E82">
+        <v>-0.01982926821060616</v>
+      </c>
+      <c r="F82">
+        <v>0.08481721262041821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03020515406228967</v>
+        <v>-0.02796589577068746</v>
       </c>
       <c r="C83">
-        <v>0.02113518944085844</v>
+        <v>0.04010576256462347</v>
       </c>
       <c r="D83">
-        <v>-0.02549277723370198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03490666308522891</v>
+      </c>
+      <c r="E83">
+        <v>-0.009044936564775747</v>
+      </c>
+      <c r="F83">
+        <v>0.0496502393367201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2284717093993665</v>
+        <v>-0.2055982977475763</v>
       </c>
       <c r="C85">
-        <v>0.09609580845946582</v>
+        <v>0.1190780231285022</v>
       </c>
       <c r="D85">
-        <v>0.102465414534238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.102959512332602</v>
+      </c>
+      <c r="E85">
+        <v>-0.00473532670443379</v>
+      </c>
+      <c r="F85">
+        <v>-0.01764182089600627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01147053528644526</v>
+        <v>-0.01184316995142615</v>
       </c>
       <c r="C86">
-        <v>0.0328544770114715</v>
+        <v>0.03117849790186966</v>
       </c>
       <c r="D86">
-        <v>-0.03568700175210541</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0702076847395379</v>
+      </c>
+      <c r="E86">
+        <v>-0.04128720949282006</v>
+      </c>
+      <c r="F86">
+        <v>0.1367566472529571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01887367860403574</v>
+        <v>-0.0211275396156838</v>
       </c>
       <c r="C87">
-        <v>0.0167948167156587</v>
+        <v>0.02166817347769277</v>
       </c>
       <c r="D87">
-        <v>-0.09134712968638309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0927906733804927</v>
+      </c>
+      <c r="E87">
+        <v>-0.08694924976333074</v>
+      </c>
+      <c r="F87">
+        <v>0.0954629274564418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1070869167319764</v>
+        <v>-0.09184161151441492</v>
       </c>
       <c r="C88">
-        <v>0.06221833796081111</v>
+        <v>0.06207877305795888</v>
       </c>
       <c r="D88">
-        <v>0.01954068960863912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01113874186869277</v>
+      </c>
+      <c r="E88">
+        <v>-0.03473114617860203</v>
+      </c>
+      <c r="F88">
+        <v>0.0737123099713874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1617672908191142</v>
+        <v>-0.219491211635143</v>
       </c>
       <c r="C89">
-        <v>-0.384293288691431</v>
+        <v>-0.3820660747113293</v>
       </c>
       <c r="D89">
-        <v>0.02641805050205322</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01195246644206864</v>
+      </c>
+      <c r="E89">
+        <v>-0.03783295309645712</v>
+      </c>
+      <c r="F89">
+        <v>0.0959702660199295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1599876949184057</v>
+        <v>-0.1984768860437529</v>
       </c>
       <c r="C90">
-        <v>-0.3562695031435651</v>
+        <v>-0.3172118505321514</v>
       </c>
       <c r="D90">
-        <v>0.01417093757357012</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0112380033647412</v>
+      </c>
+      <c r="E90">
+        <v>-0.06717368854955817</v>
+      </c>
+      <c r="F90">
+        <v>0.04759762732975088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1941895419092145</v>
+        <v>-0.1874339664950405</v>
       </c>
       <c r="C91">
-        <v>0.1050920822328104</v>
+        <v>0.1383829553863592</v>
       </c>
       <c r="D91">
-        <v>0.0656312359873831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1059677654339476</v>
+      </c>
+      <c r="E91">
+        <v>-0.06406518925050025</v>
+      </c>
+      <c r="F91">
+        <v>0.03710462841932652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1543398881234303</v>
+        <v>-0.1797378848313548</v>
       </c>
       <c r="C92">
-        <v>-0.3030698568952853</v>
+        <v>-0.2839686298639729</v>
       </c>
       <c r="D92">
-        <v>0.01128159415800501</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>3.820006558330605e-05</v>
+      </c>
+      <c r="E92">
+        <v>-0.06939555274676991</v>
+      </c>
+      <c r="F92">
+        <v>0.08049915573455688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1841392868775066</v>
+        <v>-0.2226172383929668</v>
       </c>
       <c r="C93">
-        <v>-0.3467849150388898</v>
+        <v>-0.3209907786744025</v>
       </c>
       <c r="D93">
-        <v>0.007531476431208321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001913748275077976</v>
+      </c>
+      <c r="E93">
+        <v>-0.05115299868166854</v>
+      </c>
+      <c r="F93">
+        <v>0.04406838343852064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3314775608570961</v>
+        <v>-0.3446594918190201</v>
       </c>
       <c r="C94">
-        <v>0.1377495356103346</v>
+        <v>0.1828613103342257</v>
       </c>
       <c r="D94">
-        <v>0.247191051185894</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4743462544323915</v>
+      </c>
+      <c r="E94">
+        <v>-0.149715619522293</v>
+      </c>
+      <c r="F94">
+        <v>-0.4445990974328673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1048640103517402</v>
+        <v>-0.0859376322036448</v>
       </c>
       <c r="C95">
-        <v>0.08086669990888128</v>
+        <v>0.06608848927656552</v>
       </c>
       <c r="D95">
-        <v>-0.06713968299770059</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1595875153258435</v>
+      </c>
+      <c r="E95">
+        <v>0.1241530548710219</v>
+      </c>
+      <c r="F95">
+        <v>0.1722621986211445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.195392478076702</v>
+        <v>-0.1877180057038662</v>
       </c>
       <c r="C98">
-        <v>0.01731310442035568</v>
+        <v>0.04108055194662834</v>
       </c>
       <c r="D98">
-        <v>-0.06960879849000134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1767390863614166</v>
+      </c>
+      <c r="E98">
+        <v>0.1567533277803523</v>
+      </c>
+      <c r="F98">
+        <v>-0.04528624361883407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.009604097921039133</v>
+        <v>-0.006037936882286578</v>
       </c>
       <c r="C101">
-        <v>0.02682795129945492</v>
+        <v>0.02712784042913836</v>
       </c>
       <c r="D101">
-        <v>0.0159438445876681</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02120559498963857</v>
+      </c>
+      <c r="E101">
+        <v>-0.02904802409748757</v>
+      </c>
+      <c r="F101">
+        <v>0.08933718387613196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1258742925658811</v>
+        <v>-0.1252202240555172</v>
       </c>
       <c r="C102">
-        <v>0.06717012157439856</v>
+        <v>0.09881081425114438</v>
       </c>
       <c r="D102">
-        <v>0.03693179760917387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05086780152771094</v>
+      </c>
+      <c r="E102">
+        <v>0.007902370747197325</v>
+      </c>
+      <c r="F102">
+        <v>0.04000517819918514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
